--- a/Data/LLM result/LLM_generate_strings/DeepSeek/DeepSeek with MutRex/output_C.xlsx
+++ b/Data/LLM result/LLM_generate_strings/DeepSeek/DeepSeek with MutRex/output_C.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>regex</t>
+          <t>Regex</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>positive example:[, aa, b],negative example:[c, B, A, 0]</t>
+          <t>positive example:[, a, aa, b], negative example:[ab, ba, aab]</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,9 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>positive example:[], negative example:[]</t>
+          <t>Based on your request, here are the positive and negative examples for the regular expression `-1`:
+positive example: ["-1"],  
+negative example: ["1", "-", "1-", "-11", "a", ""]</t>
         </is>
       </c>
     </row>
@@ -514,7 +516,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>positive example: [, abb], negative example: [0bb, b, bB, Bb, bbAbb, bAb]</t>
+          <t>positive example:["", "a", "ba", "baaab", "abaaab", "aabaaaba"], negative example:["b", "bb", "abab", "baabaaabab"]</t>
         </is>
       </c>
     </row>
@@ -531,7 +533,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>positive example:[0011, 01],negative example:[0A1, 0a1, 021]</t>
+          <t>positive example:[0011, 01], negative example:[00, 11, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -548,7 +550,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>positive example:[111, 010110, 001001100],negative example:[]</t>
+          <t>positive example:[111, 010110, 001001100], negative example:[0, 1, 0101]</t>
         </is>
       </c>
     </row>
@@ -565,7 +567,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>positive example:["1111"],negative example:["1", "11", "111", "11111"]</t>
+          <t>positive example: ["1111", "111111"], negative example: ["1", "11", "111", "11111"]</t>
         </is>
       </c>
     </row>
@@ -582,7 +584,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>positive example:[baab, aabb, abab],negative example:[Bb, bB, Abb, bbb, bAb]</t>
+          <t>positive example:[baab, aabb, abab],negative example:[bbb]</t>
         </is>
       </c>
     </row>
@@ -599,7 +601,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>positive example:[bb, baabbab, aabbbbbaabbbbb],negative example:[bBbb, bbbBbb, bbBb, bbbB, Bb, bbbabbab, Abb, bAbbb]</t>
+          <t>positive example:[bb, baabbab, aabbbbbaabbbbb],negative example:[bbbabbab]</t>
         </is>
       </c>
     </row>
@@ -616,7 +618,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>positive example:[aaab, ab],negative example:[Ab, aB, aAb, aa*b]</t>
+          <t>positive example:[aaab, ab], negative example:[a, b, aaa, ba]</t>
         </is>
       </c>
     </row>
@@ -633,7 +635,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>positive example:[, baabaa],negative example:[bAA, Baa, baa*]</t>
+          <t>positive example:[, baabaa, baa, baabaabaa], negative example:[ba, a, baaaab, baba]</t>
         </is>
       </c>
     </row>
@@ -650,7 +652,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>positive example:[baa, bba],negative example:[bBa, bca, bAa, baA, Baa, b0a]</t>
+          <t>positive example:[baa, bba], negative example:[aaa, bbb, aba, bab]</t>
         </is>
       </c>
     </row>
@@ -667,7 +669,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>positive example:[babaabab],negative example:[baabaAb, baaB, bAabaab, b, baaBaabaab, Abaab]</t>
+          <t>positive example:[babaabab],negative example:[b]</t>
         </is>
       </c>
     </row>
@@ -684,7 +686,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>positive example:[abb, abbb],negative example:[ab, aBB, Abb]</t>
+          <t>positive example:[abb, abbb],negative example:[ab]</t>
         </is>
       </c>
     </row>
@@ -701,7 +703,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>positive example:[bbbb, ab, a],negative example:[aB, Ab, b, A, 0, bBb, Bab]</t>
+          <t>positive example:[bbbb, ab, a],negative example:[b]</t>
         </is>
       </c>
     </row>
@@ -718,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>positive example: [00110101110], negative example: [00110101, 110101110, 001110]</t>
+          <t>positive example: ["00110101110"], negative example: ["00110101", "10101110", "001110", "001101011100", "0011010111"]</t>
         </is>
       </c>
     </row>
@@ -735,7 +737,10 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>positive example:[],negative example:[]</t>
+          <t>Based on your request, here's the response with empty sets since no regular expression was provided:
+positive example: []
+negative example: [] 
+(Note: Without a specific regular expression to analyze, it's impossible to generate meaningful positive and negative examples. The empty sets reflect that no pattern was given to evaluate against.)</t>
         </is>
       </c>
     </row>
@@ -752,7 +757,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>positive example:[0, 1], negative example:[2, A, a]</t>
+          <t>positive example:[0, 1], negative example:[2, 00, 11, 01, 10]</t>
         </is>
       </c>
     </row>
@@ -769,7 +774,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>positive example:[aaabbabbbb, bb],negative example:[aBbb, aAbb, Bbbb, Abb, 0bb, bBbb, bAbb, bB, Aabb, Bb, Abbb, Babb, abb]</t>
+          <t>positive example:[aaabbabbbb, bb],negative example:[abb]</t>
         </is>
       </c>
     </row>
@@ -786,7 +791,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>positive example:[aabb, aabbab],negative example:[aaBb, aabB, aAbb, a, Aabb, aabbc, aabb0, aabbA, aabbB]</t>
+          <t>positive example:[aabb, aabbab],negative example:[a]</t>
         </is>
       </c>
     </row>
@@ -803,7 +808,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>positive example:[aabbb, b], negative example:[0b, B, cb, aBb, aAb, aa*b]</t>
+          <t>positive example:[aabbb, b], negative example:[abab, aaaab]</t>
         </is>
       </c>
     </row>
@@ -820,7 +825,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>positive example:[b, a], negative example:[c, B, A, 0]</t>
+          <t>positive example:[a, b], negative example:[c, d, aa, ab, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -837,7 +842,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>positive example:[b, a],negative example:[c, B, A, 0]</t>
+          <t>positive example:[a,b],negative example:[c,ab,ba]</t>
         </is>
       </c>
     </row>
@@ -854,7 +859,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>positive example:[bbb], negative example:[a*b, 0b, Ab, B, cb, Bb, aAb, aa*b]</t>
+          <t>positive example: [bbb, ab, aab, b, aaab], negative example: [a, aa, aba, bba, ba]</t>
         </is>
       </c>
     </row>
@@ -871,7 +876,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>positive example:[00, 0, , 11110, 111100, 1111],negative example:[1, A, a]</t>
+          <t>positive example:[00, 0, , 11110, 111100, 1111],negative example:[1]</t>
         </is>
       </c>
     </row>
@@ -888,7 +893,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>positive example:[0101, 100, 1100, 001],negative example:[0A1, 1A0, A, a, 1, 0]</t>
+          <t>positive example:[0101, 100, 1100, 001],negative example:[1, 0]</t>
         </is>
       </c>
     </row>
@@ -905,7 +910,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>positive example:[0, 1],negative example:[2, a, A, 00]</t>
+          <t>positive example:[0, 1, ""], negative example:[00, 01, 10, 11]</t>
         </is>
       </c>
     </row>
@@ -922,7 +927,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>positive example:[baab, babaaabb],negative example:[baabaAb, b, bAabaab, baa0baab, baaB, Baabaab, baacbaab, baaBaabaab, Abaab, baaAb]</t>
+          <t>positive example:[baab, babaaabb], negative example:[b]</t>
         </is>
       </c>
     </row>
@@ -939,7 +944,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>positive example:[0, 1], negative example:[2, a, A]</t>
+          <t>positive example: ["0", "1"], negative example: ["00", "11", "01", "10", "000", "111"]</t>
         </is>
       </c>
     </row>
@@ -956,7 +961,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>positive example:[aaabbba, abbaaa, abbbba],negative example:[aBbba, abBbba, abbA, Abba, abbaA, aAbba, abbBa]</t>
+          <t>positive example:[aaabbba, abbaaa, abbbba], negative example:[a, bb, abab, aabba, bbba]</t>
         </is>
       </c>
     </row>
@@ -973,7 +978,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>positive example:[baba],negative example:[b, , Bb, bB, bbAbb, bAbbb]</t>
+          <t>positive example:[baba, babababa, abab, ababab, babbab], negative example:[b, a, aba, baa, abba]</t>
         </is>
       </c>
     </row>
@@ -990,7 +995,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>positive example:[10011100, 10110],negative example:[1010, 0110, 1110, 1011]</t>
+          <t>positive example:[10011100, 10110],negative example:[1010,0110,1110,1011]</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1012,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>positive example:[baaba, bbbbbba], negative example:[bbbbAbbbba, bbba, bBa, Bba, bbBba, bbA, bAba, bBbba, bbbAbbba]</t>
+          <t>positive example:[baaba, bbbbbba],negative example:[bbba]</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1029,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>positive example:[|bbaaaa, aa, |bbaaa],negative example:[|bbaAa, |bbaaA, 0, |Bbaaa, |bbaa, |bbAaa, A, a, Aa, aA, |bBaaa]</t>
+          <t>positive example:[aa, |bbaaaa, |bbaaa], negative example:[a]</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1046,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>positive example:[ba],negative example:[a, bA, Ba]</t>
+          <t>positive example:[ba], negative example:[a]</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1063,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>positive example:[aabaab, aaba],negative example:[aAbaba, aaba0, aaBa, 0aba, Aaba, aa, Baba, aabaB, caba, aabac, aabaA, aabAaba]</t>
+          <t>positive example:[aabaab, aaba], negative example:[aa]</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1080,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>positive example:[, bba, bbbb],negative example:[b, Bb, bB, bbAbb, bAb]</t>
+          <t>positive example:[, bba, bbbb],negative example:[b]</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1097,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>positive example:[101001, 01110],negative example:[0A000, 00002, 20000, 00020, 0000200, 0000, 00a00, A0000, 00a0000, 000a0, 000A0, a0000, 0000a, 0000A, 02000, 0000A00]</t>
+          <t>positive example:[101001, 01110],negative example:[0000]</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1114,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>positive example:[babbababbab, b],negative example:[B, bAbbab, babBab, babbaB, babbAb, baBbab]</t>
+          <t>positive example:[babbababbab, b], negative example:[a, ab, ba, baa]</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1131,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>positive example:[0011111, 111, 0101010],negative example:[1, 11]</t>
+          <t>positive example:[0011111, 111, 0101010],negative example:[1,11]</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1148,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>positive example:[100011100, 100110],negative example:[00110, 10110, 10011, 10010]</t>
+          <t>positive example:[100011100, 100110], negative example:[00110,10110,10011,10010]</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1165,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>positive example:[abbbaaa, aaabbaa, aba],negative example:[aBba, abAa, abaA, abBa, aAba, Aba, ababa]</t>
+          <t>positive example:[abbbaaa, aaabbaa, aba], negative example:[ababa]</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>positive example:[baab, babaab, abbaaabb],negative example:[baa0baab, baaB, b, Bbaab, baacbaab, baaBaabaab, Abaab, baabAabaab, baabaAbaab]</t>
+          <t>positive example:[baab, babaab, abbaaabb],negative example:[b]</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>positive example:[aabbaa, aaabbab, aaaabb],negative example:[aAbb, aaAbb, aabb0, aabB, aaBb, Aabb, aa, aabbAbb, aabbc, aabbB]</t>
+          <t>positive example:[aabbaa, aaabbab, aaaabb],negative example:[aa]</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>positive example:[baaa, a],negative example:[bAaa, b, baaA, baAa, A, 0, Baaa]</t>
+          <t>positive example:[baaa, a], negative example:[b]</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1233,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>positive example:[, aa, b], negative example:[c, B, A, 0]</t>
+          <t>positive example:[, a, aa, b], negative example:[ab, ba, bb, aab]</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1250,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>positive example:[aaa, ab],negative example:[aB, Ab, a, A, 0, aAa, aaA, Aaa]</t>
+          <t>positive example:[aaa, ab],negative example:[a]</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1267,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>positive example:[, aa],negative example:[A, a*]</t>
+          <t>positive example:[, a, aa, aaa], negative example:[b, ab, ba, aab]</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1284,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>positive example:[00100101001001, 01],negative example:[, 010A101]</t>
+          <t>positive example:[00100101001001, 01],negative example:[00, 11, 10]</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1301,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>positive example:[100, 001011, 1],negative example:[011, 1a, 1A11]</t>
+          <t>positive example:[100, 001011, 1],negative example:[011]</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1318,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>positive example:[], negative example:[b, A, 0, bB, Bb]</t>
+          <t>positive example:["", "a", "bb", "aa", "abba", "bbbb", "aabbaa"], negative example:["b", "ab", "ba", "bba", "bab", "abab", "baba"]</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1335,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>positive example:[0, 01], negative example:[A, 1, a]</t>
+          <t>positive example:[0, 01], negative example:[1]</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1352,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>positive example:[aaaab, b],negative example:[B, aAb, Aab]</t>
+          <t>positive example:[aaaab, b, aab, aaab], negative example:[a, aa, aaa, ab, ba]</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1369,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>positive example:[1], negative example:[2, a, A]</t>
+          <t>positive example: [0, 1], negative example: [00, 01, 10, 11]</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1386,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>positive example:[ababbb, babbb],negative example:[acbbb, abbb, aBbbb, cabbb, Babbb, 0abbb, aabbBbbb, Aabbb, a0bbb, aAbbb]</t>
+          <t>positive example:[ababbb, babbb], negative example:[abbb]</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1403,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>positive example:[abb, aabab],negative example:[aabc, aabB, aBb, aAb, aabAb, Aab, acb, aab0, a0b, aaBab]</t>
+          <t>positive example:[abb, aabab], negative example:[aa, ab, bbb, aba]</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1420,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>positive example:[aaaaa, a],negative example:[aaaaaa, A, aAA]</t>
+          <t>positive example:[aaaaa, a],negative example:[aaaaaa]</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1437,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>positive example:[aab, aabab],negative example:[aabc, aabB, aabA, aBb, aaB, aAb, a0bb, Aab, acb, aab0]</t>
+          <t>positive example:[aab, aabab], negative example:[abb, aba, baa]</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1454,9 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>positive example:[],negative example:[A]</t>
+          <t>The regular expression you provided is simply the character "a". Here are the positive and negative examples for this pattern:
+positive example: ["a"],  
+negative example: ["b", "aa", "", "1", "A"]</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>positive example:[abbaab, abbab],negative example:[abbb, aBbab, bbab, abba+b, Abbab, abbAb, babab, abbaB, abBab]</t>
+          <t>positive example:[abbaab, abbab],negative example:[abbb, bbab, babab]</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1490,9 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>positive example:[0],negative example:[]</t>
+          <t>Based on the given regular expression `0`, here are the positive and negative examples:
+positive example: [0],  
+negative example: ["", 1, 00, "a"]</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1509,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>positive example:[1],negative example:[]</t>
+          <t>Since you haven't provided the actual regular expression you're referring to, I can't generate specific positive and negative examples. Regular expressions define patterns for matching strings, and without knowing the pattern, it's impossible to determine which strings would be accepted (positive examples) or rejected (negative examples).
+Please provide the regular expression you'd like examples for, and I'll be happy to generate appropriate positive and negative examples for you. 
+For now, here's a generic placeholder response showing the format:
+positive example: [], negative example: []
+Once you provide the regex, I'll fill these with meaningful examples.</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1530,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>positive example:[aababab, aab],negative example:[acbab, aabaB, aBb, aAb, aaB, aabAb, Aab, a0b]</t>
+          <t>positive example:[aababab, aab], negative example:[abb, aba, aaba, abaa]</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1547,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>positive example:[0, 1001110, 010101001],negative example:[2, 0A, a, A, 0a, 00]</t>
+          <t>positive example:[0, 1001110, 010101001],negative example:[00]</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1564,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>positive example:[0101, 010010110, 100101],negative example:[010120101, 01, 0101A0101, 0101a0101]</t>
+          <t>positive example:[0101, 010010110, 100101],negative example:[01]</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1581,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>positive example:[ba, aaba], negative example:[a*ba, bA, Ba, Aba]</t>
+          <t>positive example:[ba, aaba], negative example:[ab, aaab]</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1598,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>positive example:[bb, aabaab],negative example:[bB, Bb, Abb, babab, bAb]</t>
+          <t>positive example:[bb, aabaab], negative example:[babab]</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1615,10 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>positive example:[1], negative example:[]</t>
+          <t>It seems you haven't provided the actual regular expression you'd like examples for. Could you please share the regular expression you want me to generate positive and negative examples for? Once you provide that, I can generate appropriate examples in the format you requested. 
+For example, if your regular expression was `a+b*`, I could respond with:
+positive example: ["ab", "aab", "aaabbbb"], negative example: ["b", "ba", "c", "aabca"]
+Please provide your specific regular expression and I'll generate the examples accordingly.</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1635,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>positive example:[01011, 0010011, 111],negative example:[]</t>
+          <t>positive example:[01011, 0010011, 111], negative example:[011, 1001, 0000]</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1652,8 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>positive example:[], negative example:[]</t>
+          <t>Based on your request, here's the response with empty sets for both positive and negative examples since no regular expression was provided:
+positive example: [], negative example: []</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1670,8 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>positive example:[001, 10101, 110], negative example:[2, A, a]</t>
+          <t>positive example:["001", "10101", "110", "0", "1"],  
+negative example:["000", "111", "010", "1001", "1010"]</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1688,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>positive example:[11010110],negative example:[1101011,1010110,11011010]</t>
+          <t>positive example: [11010110], negative example: [1101011, 1010110, 110101101, 110101, 10110]</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1722,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>positive example:[ba, baa],negative example:[ba+, b, Ba, bA]</t>
+          <t>positive example:[ba, baa], negative example:[b]</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1739,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>positive example:[aab, aaab, ab],negative example:[Ab, aB, aAb]</t>
+          <t>positive example:[aab, aaab, ab],negative example:[b, a, bb, aaa]</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1756,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>positive example:[],negative example:[aBba, abBa, abbA, Abba]</t>
+          <t>positive example: ["abba"], negative example: ["abb", "aba", "aabba", "abbaa", "abab"]</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1773,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>positive example:[01011, 0101010],negative example:[201010, 0101a, 0101A, 01012, a01010, A01010]</t>
+          <t>positive example:[01011, 0101010], negative example:[010, 01010, 010100]</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1790,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>positive example:[bb, bbbb],negative example:[, bB, Bb]</t>
+          <t>positive example:[bb, bbbb], negative example:[b, bbb, bbbbb]</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1807,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>positive example:[00, 11, , 110, 1100],negative example:[1, A, a]</t>
+          <t>positive example:[00, 11, , 110, 1100],negative example:[1]</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1824,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>positive example:[aaab, ab],negative example:[Ab, aB, aAb, aa*b]</t>
+          <t>positive example:[aaab, ab], negative example:[a, b, aabba, abb]</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1841,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>positive example:[aa, aabaaababaabaaa], negative example:[aabaBaaa, aabAabaabaa, aaBaabaa, aA, aabAbaaa, aabaAbaa, abAaa, abaAa]</t>
+          <t>positive example:[aa, aabaaababaabaaa], negative example:[a, ab, aaba, aabbaa]</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1858,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>positive example:[baab, babaaabab],negative example:[baabaAb, b, baa0baab, baacbaab, baaBaabaab, baabAabaab, baa, baaBb]</t>
+          <t>positive example:[baab, babaaabab],negative example:[b,baa]</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1875,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>positive example:[10, 0101, 1100, 0011, 01],negative example:[0A1, 1A0, 1, a, A]</t>
+          <t>positive example:[10, 0101, 1100, 0011, 01],negative example:[1]</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1892,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>positive example:[ba, aabbbbba],negative example:[bBba, bbBa, bA, bbbAbba, Ba, bbAba, Aba]</t>
+          <t>positive example:[ba, aabbbbba], negative example:[ab, baa, aab]</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1909,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>positive example:[00, ],negative example:[0*]</t>
+          <t>positive example:["00", ""], negative example:["01", "10"]</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1926,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>positive example:[bba, aba, a],negative example:[A, Ba, Aba]</t>
+          <t>positive example:[bba, aba, a],negative example:[bb, baa, ab]</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1943,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>positive example:[0110, 01], negative example:[0A, 0a, 11, 00, a1, A1]</t>
+          <t>positive example:[0110,01],negative example:[11,00]</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1960,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>positive example:[00000, 0000110, 0011001],negative example:[00200, 0a000, 0A000, 00002, 00020, 0000a0000, 00a00, A0000, 000, 000a0, 000A0, 0020000, 0000a, 0000A, 02000, 00A00]</t>
+          <t>positive example:[00000, 0000110, 0011001],negative example:[000]</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1994,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>positive example:[0, 10011010, 01010001110],negative example:[2, a, 0a, A, 0A, 00]</t>
+          <t>positive example:[0, 10011010, 01010001110],negative example:[00]</t>
         </is>
       </c>
     </row>
@@ -1993,7 +2011,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>positive example:[aabbbbbb, bb, abb],negative example:[bBbb, bbBb, Bb, bB, bbbbb, Abb, bbAbb, bAbbb]</t>
+          <t>positive example:[aabbbbbb, bb, abb],negative example:[bbbbb]</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2028,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>positive example:[abbb, ab],negative example:[aB, Ab, abB, abb*]</t>
+          <t>positive example:[abbb, ab], negative example:[a, b, bb, bbb]</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2045,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>positive example:[bbaabb, aabab, abbbb],negative example:[bBbb, bbBb, Abab, bbb, bbAbb, Bab, baB, bAb, b0b]</t>
+          <t>positive example:[bbaabb, aabab, abbbb],negative example:[bbb]</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2062,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>positive example:[, baaabaaa], negative example:[A, bAa, baA, Baa]</t>
+          <t>positive example:[, baaabaaa], negative example:[a, baaabaa, baaaabaa]</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2079,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>positive example:[, bbaa],negative example:[c, B, A, 0, aba, a+]</t>
+          <t>positive example:[, bbaa],negative example:[aba]</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2096,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>positive example:[11, 11111001, 0010100101, 100101011111],negative example:[11011010111, 0*1111]</t>
+          <t>positive example:[11, 11111001, 0010100101, 100101011111],negative example:[11011010111]</t>
         </is>
       </c>
     </row>
